--- a/03_PE/008 静态链接库 动态链接库 def文件 句柄.xlsx
+++ b/03_PE/008 静态链接库 动态链接库 def文件 句柄.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03_PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36BAA6D-1814-4691-BE3C-F5B7C7562B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22850ABB-CB23-44E2-ABAD-EE7D773355D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8676" yWindow="780" windowWidth="13116" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,9 +633,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,7 +1259,7 @@
   <dimension ref="B4:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1973,9 +1970,7 @@
   </sheetPr>
   <dimension ref="B4:M89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A66" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2508,7 +2503,7 @@
   </sheetPr>
   <dimension ref="B4:I48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2697,7 +2692,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C41" s="5"/>
